--- a/medicine/Enfance/Prix_des_Incorruptibles/Prix_des_Incorruptibles.xlsx
+++ b/medicine/Enfance/Prix_des_Incorruptibles/Prix_des_Incorruptibles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix des Incorruptibles, dit aussi prix des Incos, est le premier prix littéraire français consacré à la littérature jeunesse contemporaine. Il est décerné par de jeunes lecteurs, de la maternelle au lycée.
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix a été créé en 1988 par Françoise Xénakis et Sidney Habib, et par l’association Le Prix des Incorruptibles, association loi de 1901 de défense de la lecture, reconnue comme « association ressource » dans le cadre du plan de lutte et de prévention contre l’illettrisme du Ministère de la Jeunesse, de l’Éducation nationale et de la Recherche et comme « association éducative complémentaire de l’enseignement public » depuis 1993[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix a été créé en 1988 par Françoise Xénakis et Sidney Habib, et par l’association Le Prix des Incorruptibles, association loi de 1901 de défense de la lecture, reconnue comme « association ressource » dans le cadre du plan de lutte et de prévention contre l’illettrisme du Ministère de la Jeunesse, de l’Éducation nationale et de la Recherche et comme « association éducative complémentaire de l’enseignement public » depuis 1993.
 La première édition a lieu lors de l’année scolaire 1988/1989 et un des lauréats du premier prix des Incorruptibles est Roald Dahl pour son roman Matilda (Gallimard), dont l’héroïne, une petite fille très intelligente, dévore les livres depuis l’âge de trois ans.
 C'est un des rares prix littéraires[réf. nécessaire] jeunesse dont les jurés sont des enfants.
 </t>
@@ -546,11 +560,13 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des comités de sélection constitués par plus de 1 200 professionnels du livre et de l'éducation (enseignants, professeures-documentalistes, bibliothécaires, libraires, etc.) choisissent cinq à six livres par niveau de lecture (maternelle, CP, CE1, CE2/CM1, CM2/6e, 5e/4e ou 3e/Lycée). 
 Les enseignants, professeurs-documentalistes, bibliothécaires, animateurs et parents d’élèves souhaitant participer, inscrivent leur école, collège, lycée, bibliothèque, ou centre de loisirs entre avril et juillet, à l’association et acquièrent les livres du niveau de leur choix, qu'ils reçoivent à partir de fin septembre. 
-Les jeunes participants doivent ensuite lire tous les livres avant fin mai, échanger et partager leur opinion avec leurs camarades, puis voter en mai pour leur livre préféré[2].
+Les jeunes participants doivent ensuite lire tous les livres avant fin mai, échanger et partager leur opinion avec leurs camarades, puis voter en mai pour leur livre préféré.
 </t>
         </is>
       </c>
@@ -581,102 +597,481 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lauréats 2012
-Maternelle: Si tous les éléphants s'appelaient Bertrand, Édouard Manceau, Milan Jeunesse
+          <t>Lauréats 2012</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Maternelle: Si tous les éléphants s'appelaient Bertrand, Édouard Manceau, Milan Jeunesse
 CP : Surtout, n'ouvre pas la porte, Claire Clément, ill. Gwénola Carrère, Bayard
 CE1 : Faim de loup, Éric Pintus, ill. Rémi Saillard, Didier Jeunesse
 CE2/CM1 : Bao et le dragon de jade, Pascal Vatinel, ill. Peggy Adam, Actes Sud Junior
 CM2/6e : SOS ange gardien, Véronique Delamarre Bellégo, Oskar Jeunesse
 5e/4e : Les Haut-Conteurs T1 : la Voix des rois, Patrick McSpare et Olivier Peru, Scrinéo Jeunesse
-3e/2nde : Metal mélodie, Maryvonne Rippert, Milan Jeunesse
-Lauréats 2013
-Maternelle : Les poulets guerriers, Catherine Zarcate et Élodie Balandras, Syros
+3e/2nde : Metal mélodie, Maryvonne Rippert, Milan Jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lauréats 2013</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maternelle : Les poulets guerriers, Catherine Zarcate et Élodie Balandras, Syros
 CP : La culotte du loup, Stéphane Servant et Lætitia Le Saux, Didier Jeunesse
 CE1 : L'oiseau arlequin, Pascale Maret et Delphine Jacquot, Thierry Magnier
 CE2/CM1 : Vert secret, Max Ducos, Sarbacane
 CM2/6ème : Le fantôme de Sarah Fisher, Agnès Laroche, Rageot
 5ème/4ème : Saba, ange de la mort, T.1 : Les chemins de poussière, Moira Young, Gallimard jeunesse
-3ème/2nde : Boys don't cry, Malorie Blackman, Milan Jeunesse[3].
-Lauréats 2014
-Maternelle : Nina et Nino, Yokococo, Belin
+3ème/2nde : Boys don't cry, Malorie Blackman, Milan Jeunesse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lauréats 2014</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Maternelle : Nina et Nino, Yokococo, Belin
 CP : C'est pas moi, c'est mon loup !, Mily Cabrol et Amélie Graux, Milan
 CE1 : Arrête de lire !, Claire Gratias et Sylvie Serprix, Belin
 CE2/CM1 : Lulu et le brontonsaure, Judith Viorst et Lane Smith, Milan
 CM2/6ème : Azami, le cœur en deux, Isabel et Marc Cantin, Nathan
 5ème/4ème : Décollage immédiat, Fabien Clavel, Rageot
-3ème/2nde : Ce qu'ils n'ont pas pu nous prendre, Ruta Sepetys, Gallimard Jeunesse[4].
-Lauréats 2015
-Maternelle : Non !, Marta Altès, Éditions Circonflexe
+3ème/2nde : Ce qu'ils n'ont pas pu nous prendre, Ruta Sepetys, Gallimard Jeunesse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lauréats 2015</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Maternelle : Non !, Marta Altès, Éditions Circonflexe
 CP : La bonne humeur de loup gris, Gilles Bizouerne, ill. Ronan Badel, Didier Jeunesse
 CE1 : Emma à New York, Claire Frossard, photographies de Étienne Frossard, Belin
 CE2/CM1 : Rue des petits singes, Agnès Laroche,  Rageot Editeur
-CM2/6ème : La fille qui n'aimait pas les fins, Matt7ieu Radenac[5] et Yaël Hassan, Syros
+CM2/6ème : La fille qui n'aimait pas les fins, Matt7ieu Radenac et Yaël Hassan, Syros
 5ème/4ème : Le manoir, tome 1 : Liam et la carte d'Eternité, Évelyne Brisou-Pellen, Bayard Jeunesse
-3ème/2nde : Nos étoiles contraires, John Green ; trad. de Catherine Gibert, Nathan[6],[7].
-Lauréats 2016
-Maternelle : Chut ! On a un plan, Chris Haughton, éditions Thierry Magnier
+3ème/2nde : Nos étoiles contraires, John Green ; trad. de Catherine Gibert, Nathan,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lauréats 2016</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Maternelle : Chut ! On a un plan, Chris Haughton, éditions Thierry Magnier
 CP : Chat rouge, chat bleu, Jenni Desmond, éditions Mango Jeunesse
 CE1 : Clodomir Mousqueton, Christine Naumann-Villemin, ill. Clément Devaux, éditions Nathan
 CE2/CM1 :  La Louve, Clémentine Beauvais, ill. Antoine Déprez, Alice éditions
 CM2/6e : Banzaï Sakura, Véronique Delamarre-Bellégo, Oskar éditeur
 5e/4e : 14-14, Silène Edgar et Paul Beorn, éditions Castelmore
-3e/Lycée : Yankov, Rachel Hausfater, éditions Thierry Magnier[8],[9].
-Lauréats 2017
-Maternelle : Maman à l'école, Éric Veillé, ill. Pauline Martin, Actes Sud Junior
+3e/Lycée : Yankov, Rachel Hausfater, éditions Thierry Magnier,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lauréats 2017</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Maternelle : Maman à l'école, Éric Veillé, ill. Pauline Martin, Actes Sud Junior
 CP : Entre chien et poulpe, Martin McKenna, Père Fouettard
 CE1 : Deux drôles de bêtes dans la forêt, Fiona Roberton, Éditions Circonflexe
 CE2/CM1 : Le voleur de sandwichs, André Marois, ill. Patrick Doyon, La Pastèque
 CM2/6e : Memo 657, Thierry Robberecht, Mijade
 5e/4e : #Bleue, Florence Hinckel, Syros
-3e/Lycée : Aristote et Dante découvrent les secrets de l'univers, Benjamin Alire Sáenz, PKJ[10],[11],[12].
-Lauréats 2018
-Maternelle : Au bureau des objets trouvés, Junko Shibuya, Actes Sud junior
+3e/Lycée : Aristote et Dante découvrent les secrets de l'univers, Benjamin Alire Sáenz, PKJ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lauréats 2018</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Maternelle : Au bureau des objets trouvés, Junko Shibuya, Actes Sud junior
 CP : Drôles de vacances !, Gilad Soffer, Éditions Circonflexe
 CE1 : Aimé, Claire Clément, ill. Benjamin Strickler, Éditions Talents Hauts
 CE2/CM1 : Le garçon qui parlait avec les mains, Sandrine Beau, ill. Gwenaëlle Doumont, Alice Jeunesse
 CM2/6e : La vraie recette de l’amour, Agnès Laroche, Rageot
 5e/4e : Chemins toxiques, Louis Sachar, Gallimard Jeunesse
-3e/Lycée : Everything everything, Nicola Yoon, Bayard Jeunesse[13].
-Lauréats 2019
-Maternelle : Plus gros que le ventre, Michaël Escoffier, ill. Amandine Piu, éd. Frimousse
+3e/Lycée : Everything everything, Nicola Yoon, Bayard Jeunesse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lauréats 2019</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Maternelle : Plus gros que le ventre, Michaël Escoffier, ill. Amandine Piu, éd. Frimousse
 CP : Chut !, Morgane de Cadier, ill. Florian Pigé, éd. HongFei Cultures
 CE1 : Le renard Tokela, POG, ill. Marianne Alexandre, éd. Des ronds dans l'O Jeunesse
 CE2/CM1 : Tu vois, on pense à toi !, Cathy Ytak, éd. Syros
 CM2/6e : Megumi et le fantôme, Éric Senabre, éd. Didier Jeunesse
 5e/4e : Attends qu'Helen vienne, Mary Downing Hahn, éd. Thierry Magnier
-3e/Lycée : Need, Joelle Charbonneau, éd. Milan.
-Lauréats 2020
-Maternelle : Papa coin coin !, Rosalinde Bonnet, Éditions Circonflexe
+3e/Lycée : Need, Joelle Charbonneau, éd. Milan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lauréats 2020</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Maternelle : Papa coin coin !, Rosalinde Bonnet, Éditions Circonflexe
 CP : Où tu vas comme ça ?, Gilles Bizouerne, ill. Bérengère Delaporte, Didier Jeunesse
 CE1 : Il n'y a pas de dragon dans cette histoire, Lou Carter, ill. Deborah Allwright, trad. Benjamin Kuntzer, Éditions Circonflexe
 CE2/CM1 : L'incroyable histoire du mouton qui sauva une école, Thomas Gerbeaux, ill. Pauline Kerleroux, La Joie de Lire
 CM2/6e : Jefferson, Jean-Claude Mourlevat, Gallimard Jeunesse
 5e/4e : Le mot d'Abel, Véronique Petit, Rageot
-3e/Lycée : ex-æquo Le dossier Handle, David Moitet, Didier Jeunesse et Deux secondes en moins, Nancy Guilbert, Marie Colot, Magnard Jeunesse.
-Lauréats 2021
-Maternelle : Le bon côté du mur, Jon Agee, Gallimard Jeunesse
+3e/Lycée : ex-æquo Le dossier Handle, David Moitet, Didier Jeunesse et Deux secondes en moins, Nancy Guilbert, Marie Colot, Magnard Jeunesse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lauréats 2021</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Maternelle : Le bon côté du mur, Jon Agee, Gallimard Jeunesse
 CP : Une fin de loup, Jérôme Camil, Alice Jeunesse
 CE1 : Tuk-Tuk Express, Didier Lévy, ill. Sébastien Mourrain, ABC Melody
 CE2/CM1 : Capitaine Rosalie, Timothée de Fombelle, ill. Isabelle Arsenault,Gallimard Jeunesse
 CM2/6e : Peur dans la neige, Sandrine Beau, Mijade
 5e/4e : Celle qui marche la nuit, Delphine Bertholon, Albin Michel Jeunesse
-3e/Lycée : Keep hope, Nathalie Bernard, Frédéric Portalet, éd.Thierry Magnier[14].
-Lauréats 2022
-Maternelle : Aïe Aïe Aïe !, Christine Naumann-Villemin, ill. Ana Duna, Auzou
+3e/Lycée : Keep hope, Nathalie Bernard, Frédéric Portalet, éd.Thierry Magnier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lauréats 2022</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Maternelle : Aïe Aïe Aïe !, Christine Naumann-Villemin, ill. Ana Duna, Auzou
 CP : Paf !, Jérôme Camil, Alice Jeunesse
 CE1 : La chasse au trésor de monsieur Taupe, Katerina Gorelik, Sarbacane
 CE2/CM1 : La classe des mammouths, Jérôme Poncin, ill. Ian De Haes, Alice Jeunesse
 CM2/6e : Des bleus au cartable, Muriel Zürcher, Didier Jeunesse
 5e/4e : Alice, David Moitet, éditions du Rocher
-3e/Lycée : D.O.G., Nathalie Bernard, Frédéric Portalet, éd.Thierry Magnier[15]
-Lauréats 2023
-Maternelle :  Il était une fois un roi et une rei..., Philippe Jalbert, Seuil Jeunesse
+3e/Lycée : D.O.G., Nathalie Bernard, Frédéric Portalet, éd.Thierry Magnier</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_des_Incorruptibles</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lauréats 2023</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maternelle :  Il était une fois un roi et une rei..., Philippe Jalbert, Seuil Jeunesse
 CP : Le grand voyage de Quenotte, Jessica Meserve, Didier Jeunesse
 CE1 : Le voyage d’Od ,Susanna Isern et Ana Sender, Père Fouettard
 CE2/CM1 : Extra, Delphine Pessin, Didier Jeunesse
 CM2/6e : L’herboriste de Hoteforais, Nathalie Somers, Didier Jeunesse
 5e/4e : Né coupable, Florence Cadier, Talents Hauts
-3e/Lycée :  Le syndrome du spaghetti, Marie Vareille, Pocket Jeunesse [16]</t>
+3e/Lycée :  Le syndrome du spaghetti, Marie Vareille, Pocket Jeunesse </t>
         </is>
       </c>
     </row>
